--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05261753845416351</v>
+        <v>0.04628467895650446</v>
       </c>
       <c r="C2">
-        <v>1.350476871904311</v>
+        <v>1.329827146587384</v>
       </c>
       <c r="D2">
-        <v>10.10003955787528</v>
+        <v>9.907280297060181</v>
       </c>
       <c r="E2">
-        <v>3.178055940016677</v>
+        <v>3.147583247042114</v>
       </c>
       <c r="F2">
-        <v>3.209239220060225</v>
+        <v>3.177948460597182</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02310908688600665</v>
+        <v>0.03072812890343799</v>
       </c>
       <c r="C3">
-        <v>1.508687381939164</v>
+        <v>1.487177437779083</v>
       </c>
       <c r="D3">
-        <v>9.675801997808875</v>
+        <v>9.489403539255518</v>
       </c>
       <c r="E3">
-        <v>3.110595119556526</v>
+        <v>3.080487548953172</v>
       </c>
       <c r="F3">
-        <v>3.1420888619256</v>
+        <v>3.110985134611961</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0619550970533476</v>
+        <v>0.05670300065403502</v>
       </c>
       <c r="C4">
-        <v>1.373983353632171</v>
+        <v>1.350516681017773</v>
       </c>
       <c r="D4">
-        <v>6.861338155303133</v>
+        <v>6.724916598423166</v>
       </c>
       <c r="E4">
-        <v>2.619415613319722</v>
+        <v>2.593244415480956</v>
       </c>
       <c r="F4">
-        <v>2.645820156166766</v>
+        <v>2.61894615200115</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06730251648952341</v>
+        <v>0.06807619608839131</v>
       </c>
       <c r="C5">
-        <v>1.433898174105932</v>
+        <v>1.406782146406506</v>
       </c>
       <c r="D5">
-        <v>8.49624289535795</v>
+        <v>8.32307609620424</v>
       </c>
       <c r="E5">
-        <v>2.914831538075219</v>
+        <v>2.884974193334187</v>
       </c>
       <c r="F5">
-        <v>2.944891851492343</v>
+        <v>2.914059470405175</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04899455259774384</v>
+        <v>0.0465829568975624</v>
       </c>
       <c r="C6">
-        <v>1.583601773355311</v>
+        <v>1.552000945598137</v>
       </c>
       <c r="D6">
-        <v>9.97197792596331</v>
+        <v>9.764321243549908</v>
       </c>
       <c r="E6">
-        <v>3.157843872955614</v>
+        <v>3.124791392005218</v>
       </c>
       <c r="F6">
-        <v>3.19159950566434</v>
+        <v>3.15750797590164</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.001456092345490206</v>
+        <v>0.007348863100462911</v>
       </c>
       <c r="C7">
-        <v>1.845568288834279</v>
+        <v>1.800235720797896</v>
       </c>
       <c r="D7">
-        <v>10.82579718395967</v>
+        <v>10.52634790614585</v>
       </c>
       <c r="E7">
-        <v>3.290257920583076</v>
+        <v>3.244433372123066</v>
       </c>
       <c r="F7">
-        <v>3.338293096917047</v>
+        <v>3.290447561450098</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05717823124358925</v>
+        <v>0.04734274986515632</v>
       </c>
       <c r="C8">
-        <v>1.894034756524209</v>
+        <v>1.848121295394991</v>
       </c>
       <c r="D8">
-        <v>11.28985814625171</v>
+        <v>10.96964521407898</v>
       </c>
       <c r="E8">
-        <v>3.360038414401197</v>
+        <v>3.312045472827778</v>
       </c>
       <c r="F8">
-        <v>3.410074286350715</v>
+        <v>3.360055740670333</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.102474995084467</v>
+        <v>0.08958096046880724</v>
       </c>
       <c r="C9">
-        <v>2.743158915452505</v>
+        <v>2.597962177260555</v>
       </c>
       <c r="D9">
-        <v>20.76649142581848</v>
+        <v>19.61373083157788</v>
       </c>
       <c r="E9">
-        <v>4.557026599200237</v>
+        <v>4.428739192092698</v>
       </c>
       <c r="F9">
-        <v>4.69608770095129</v>
+        <v>4.55620268551751</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.670194125663042</v>
+        <v>-0.6075801358359439</v>
       </c>
       <c r="C10">
-        <v>3.415457035704461</v>
+        <v>3.106648192679968</v>
       </c>
       <c r="D10">
-        <v>25.67801338510919</v>
+        <v>23.3436798468976</v>
       </c>
       <c r="E10">
-        <v>5.067347766347717</v>
+        <v>4.831529762600827</v>
       </c>
       <c r="F10">
-        <v>5.294531058768299</v>
+        <v>5.027124311967897</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01177902937386835</v>
+        <v>-0.02314597604078636</v>
       </c>
       <c r="C2">
-        <v>0.3233677337305382</v>
+        <v>0.3579920056255013</v>
       </c>
       <c r="D2">
-        <v>0.1387525778210147</v>
+        <v>0.1782699060034266</v>
       </c>
       <c r="E2">
-        <v>0.3724950708680783</v>
+        <v>0.4222202103209018</v>
       </c>
       <c r="F2">
-        <v>0.3863630867095333</v>
+        <v>0.4363822494547141</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.008234150994489252</v>
+        <v>0.01177902937386835</v>
       </c>
       <c r="C3">
-        <v>0.3656812685479343</v>
+        <v>0.3233677337305382</v>
       </c>
       <c r="D3">
-        <v>0.1736781030421116</v>
+        <v>0.1387525778210147</v>
       </c>
       <c r="E3">
-        <v>0.4167470492302394</v>
+        <v>0.3724950708680783</v>
       </c>
       <c r="F3">
-        <v>0.4336794057244024</v>
+        <v>0.3863630867095333</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04114622104959433</v>
+        <v>-0.008234150994489252</v>
       </c>
       <c r="C4">
-        <v>0.2438785208639479</v>
+        <v>0.3656812685479343</v>
       </c>
       <c r="D4">
-        <v>0.09301430872978532</v>
+        <v>0.1736781030421116</v>
       </c>
       <c r="E4">
-        <v>0.3049824728239072</v>
+        <v>0.4167470492302394</v>
       </c>
       <c r="F4">
-        <v>0.315631483433317</v>
+        <v>0.4336794057244024</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.004251297071472607</v>
+        <v>0.04114622104959433</v>
       </c>
       <c r="C5">
-        <v>0.3196557001756482</v>
+        <v>0.2438785208639479</v>
       </c>
       <c r="D5">
-        <v>0.1664324393548997</v>
+        <v>0.09301430872978532</v>
       </c>
       <c r="E5">
-        <v>0.4079613209054257</v>
+        <v>0.3049824728239072</v>
       </c>
       <c r="F5">
-        <v>0.4278502102499434</v>
+        <v>0.315631483433317</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03152289704198964</v>
+        <v>-0.004251297071472607</v>
       </c>
       <c r="C6">
-        <v>0.3137577720403564</v>
+        <v>0.3196557001756482</v>
       </c>
       <c r="D6">
-        <v>0.1200567451426497</v>
+        <v>0.1664324393548997</v>
       </c>
       <c r="E6">
-        <v>0.3464920563918454</v>
+        <v>0.4079613209054257</v>
       </c>
       <c r="F6">
-        <v>0.3637200573468097</v>
+        <v>0.4278502102499434</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05669611638992965</v>
+        <v>-0.03152289704198964</v>
       </c>
       <c r="C7">
-        <v>0.309241221828214</v>
+        <v>0.3137577720403564</v>
       </c>
       <c r="D7">
-        <v>0.12362493933599</v>
+        <v>0.1200567451426497</v>
       </c>
       <c r="E7">
-        <v>0.3516033835673229</v>
+        <v>0.3464920563918454</v>
       </c>
       <c r="F7">
-        <v>0.3680513563860018</v>
+        <v>0.3637200573468097</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04410238231315148</v>
+        <v>-0.05669611638992965</v>
       </c>
       <c r="C8">
-        <v>0.2487243691024244</v>
+        <v>0.309241221828214</v>
       </c>
       <c r="D8">
-        <v>0.1063280554679864</v>
+        <v>0.12362493933599</v>
       </c>
       <c r="E8">
-        <v>0.3260798299005727</v>
+        <v>0.3516033835673229</v>
       </c>
       <c r="F8">
-        <v>0.3453909343541705</v>
+        <v>0.3680513563860018</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.07289500678705241</v>
+        <v>-0.04410238231315148</v>
       </c>
       <c r="C9">
-        <v>0.3460499651212735</v>
+        <v>0.2487243691024244</v>
       </c>
       <c r="D9">
-        <v>0.2127274776992719</v>
+        <v>0.1063280554679864</v>
       </c>
       <c r="E9">
-        <v>0.4612238910759848</v>
+        <v>0.3260798299005727</v>
       </c>
       <c r="F9">
-        <v>0.4919174337551497</v>
+        <v>0.3453909343541705</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05253816173664939</v>
+        <v>-0.07289500678705241</v>
       </c>
       <c r="C10">
-        <v>0.2093953811075043</v>
+        <v>0.3460499651212735</v>
       </c>
       <c r="D10">
-        <v>0.05818608614024737</v>
+        <v>0.2127274776992719</v>
       </c>
       <c r="E10">
-        <v>0.2412179225104291</v>
+        <v>0.4612238910759848</v>
       </c>
       <c r="F10">
-        <v>0.2578972532655152</v>
+        <v>0.4919174337551497</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009352853557239749</v>
+        <v>-0.05253816173664939</v>
       </c>
       <c r="C11">
-        <v>0.4545107205050175</v>
+        <v>0.2093953811075043</v>
       </c>
       <c r="D11">
-        <v>0.223274494992554</v>
+        <v>0.05818608614024737</v>
       </c>
       <c r="E11">
-        <v>0.4725193064759936</v>
+        <v>0.2412179225104291</v>
       </c>
       <c r="F11">
-        <v>0.5281891459539978</v>
+        <v>0.2578972532655152</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02314597604078636</v>
+        <v>0.04628467895650446</v>
       </c>
       <c r="C2">
-        <v>0.3579920056255013</v>
+        <v>1.329827146587384</v>
       </c>
       <c r="D2">
-        <v>0.1782699060034266</v>
+        <v>9.907280297060181</v>
       </c>
       <c r="E2">
-        <v>0.4222202103209018</v>
+        <v>3.147583247042114</v>
       </c>
       <c r="F2">
-        <v>0.4363822494547141</v>
+        <v>3.177948460597182</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01177902937386835</v>
+        <v>0.03072812890343799</v>
       </c>
       <c r="C3">
-        <v>0.3233677337305382</v>
+        <v>1.487177437779083</v>
       </c>
       <c r="D3">
-        <v>0.1387525778210147</v>
+        <v>9.489403539255518</v>
       </c>
       <c r="E3">
-        <v>0.3724950708680783</v>
+        <v>3.080487548953172</v>
       </c>
       <c r="F3">
-        <v>0.3863630867095333</v>
+        <v>3.110985134611961</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.008234150994489252</v>
+        <v>0.05670300065403502</v>
       </c>
       <c r="C4">
-        <v>0.3656812685479343</v>
+        <v>1.350516681017773</v>
       </c>
       <c r="D4">
-        <v>0.1736781030421116</v>
+        <v>6.724916598423166</v>
       </c>
       <c r="E4">
-        <v>0.4167470492302394</v>
+        <v>2.593244415480956</v>
       </c>
       <c r="F4">
-        <v>0.4336794057244024</v>
+        <v>2.61894615200115</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04114622104959433</v>
+        <v>0.06807619608839131</v>
       </c>
       <c r="C5">
-        <v>0.2438785208639479</v>
+        <v>1.406782146406506</v>
       </c>
       <c r="D5">
-        <v>0.09301430872978532</v>
+        <v>8.32307609620424</v>
       </c>
       <c r="E5">
-        <v>0.3049824728239072</v>
+        <v>2.884974193334187</v>
       </c>
       <c r="F5">
-        <v>0.315631483433317</v>
+        <v>2.914059470405175</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.004251297071472607</v>
+        <v>0.0465829568975624</v>
       </c>
       <c r="C6">
-        <v>0.3196557001756482</v>
+        <v>1.552000945598137</v>
       </c>
       <c r="D6">
-        <v>0.1664324393548997</v>
+        <v>9.764321243549908</v>
       </c>
       <c r="E6">
-        <v>0.4079613209054257</v>
+        <v>3.124791392005218</v>
       </c>
       <c r="F6">
-        <v>0.4278502102499434</v>
+        <v>3.15750797590164</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03152289704198964</v>
+        <v>0.007348863100462911</v>
       </c>
       <c r="C7">
-        <v>0.3137577720403564</v>
+        <v>1.800235720797896</v>
       </c>
       <c r="D7">
-        <v>0.1200567451426497</v>
+        <v>10.52634790614585</v>
       </c>
       <c r="E7">
-        <v>0.3464920563918454</v>
+        <v>3.244433372123066</v>
       </c>
       <c r="F7">
-        <v>0.3637200573468097</v>
+        <v>3.290447561450098</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05669611638992965</v>
+        <v>0.04734274986515632</v>
       </c>
       <c r="C8">
-        <v>0.309241221828214</v>
+        <v>1.848121295394991</v>
       </c>
       <c r="D8">
-        <v>0.12362493933599</v>
+        <v>10.96964521407898</v>
       </c>
       <c r="E8">
-        <v>0.3516033835673229</v>
+        <v>3.312045472827778</v>
       </c>
       <c r="F8">
-        <v>0.3680513563860018</v>
+        <v>3.360055740670333</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04410238231315148</v>
+        <v>0.08958096046880724</v>
       </c>
       <c r="C9">
-        <v>0.2487243691024244</v>
+        <v>2.597962177260555</v>
       </c>
       <c r="D9">
-        <v>0.1063280554679864</v>
+        <v>19.61373083157788</v>
       </c>
       <c r="E9">
-        <v>0.3260798299005727</v>
+        <v>4.428739192092698</v>
       </c>
       <c r="F9">
-        <v>0.3453909343541705</v>
+        <v>4.55620268551751</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07289500678705241</v>
+        <v>-0.6075801358359439</v>
       </c>
       <c r="C10">
-        <v>0.3460499651212735</v>
+        <v>3.106648192679968</v>
       </c>
       <c r="D10">
-        <v>0.2127274776992719</v>
+        <v>23.3436798468976</v>
       </c>
       <c r="E10">
-        <v>0.4612238910759848</v>
+        <v>4.831529762600827</v>
       </c>
       <c r="F10">
-        <v>0.4919174337551497</v>
+        <v>5.027124311967897</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.05253816173664939</v>
+        <v>-1.322332775507276</v>
       </c>
       <c r="C11">
-        <v>0.2093953811075043</v>
+        <v>2.379927842974612</v>
       </c>
       <c r="D11">
-        <v>0.05818608614024737</v>
+        <v>17.91130170936413</v>
       </c>
       <c r="E11">
-        <v>0.2412179225104291</v>
+        <v>4.232174583989196</v>
       </c>
       <c r="F11">
-        <v>0.2578972532655152</v>
+        <v>4.494821706723103</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
